--- a/optical setup/part_list.xlsx
+++ b/optical setup/part_list.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -91,6 +91,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -111,6 +112,7 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -155,12 +157,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -290,182 +296,182 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.28"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="n">
+      <c r="C2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <f aca="false">C2*D2</f>
-        <v>113</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0" t="n">
+      <c r="C3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <f aca="false">C3*D3</f>
         <v>192</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="0" t="n">
+      <c r="C4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="n">
         <v>236</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <f aca="false">C4*D4</f>
         <v>236</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="0" t="n">
+      <c r="C5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <f aca="false">C5*D5</f>
         <v>192</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="0" t="n">
+      <c r="C6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <f aca="false">C6*D6</f>
         <v>135</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" s="0" t="n">
+      <c r="C7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <f aca="false">C7*D7</f>
-        <v>368</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="0" t="n">
+      <c r="C8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <f aca="false">C8*D8</f>
         <v>122</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="0" t="n">
+      <c r="B9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <f aca="false">C9*D9</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="1" t="n">
         <f aca="false">SUM(E2:E9)</f>
-        <v>1358</v>
+        <v>1563</v>
       </c>
     </row>
   </sheetData>
